--- a/src/main/java/com/ep/test/data/TestData.xlsx
+++ b/src/main/java/com/ep/test/data/TestData.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15135" windowHeight="4140"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15135" windowHeight="4140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="StudentForm" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:L12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Login</t>
   </si>
@@ -32,13 +32,118 @@
   </si>
   <si>
     <t>mani6747@gmail.com</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua </t>
+  </si>
+  <si>
+    <t>Middlename</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Studentid</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Emailaddress</t>
+  </si>
+  <si>
+    <t>Parentemployer</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Relationtochild</t>
+  </si>
+  <si>
+    <t>Pickuppersonname</t>
+  </si>
+  <si>
+    <t>PickuppersonTelephone</t>
+  </si>
+  <si>
+    <t>Jhon</t>
+  </si>
+  <si>
+    <t>979-87-8787</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>3217 Versante Drive</t>
+  </si>
+  <si>
+    <t>965-679-8989</t>
+  </si>
+  <si>
+    <t>966-659-7666</t>
+  </si>
+  <si>
+    <t>IT Industry</t>
+  </si>
+  <si>
+    <t>Daren</t>
+  </si>
+  <si>
+    <t>Uncel</t>
+  </si>
+  <si>
+    <t>Josep</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Manikanta</t>
+  </si>
+  <si>
+    <t>StudentForm</t>
+  </si>
+  <si>
+    <t>ParentorGuardian</t>
+  </si>
+  <si>
+    <t>SignatureLegalParentorGuardian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +157,19 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,12 +196,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -381,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -440,13 +561,239 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>912</v>
+      </c>
+      <c r="H4" s="4">
+        <v>38880</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4">
+        <v>38119</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/main/java/com/ep/test/data/TestData.xlsx
+++ b/src/main/java/com/ep/test/data/TestData.xlsx
@@ -9,15 +9,14 @@
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="StudentForm" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:L12"/>
+  <oleSize ref="S1:AA12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>Login</t>
   </si>
@@ -40,12 +39,6 @@
     <t>Firstname</t>
   </si>
   <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joshua </t>
-  </si>
-  <si>
     <t>Middlename</t>
   </si>
   <si>
@@ -137,13 +130,49 @@
   </si>
   <si>
     <t>SignatureLegalParentorGuardian</t>
+  </si>
+  <si>
+    <t>Cardtype</t>
+  </si>
+  <si>
+    <t>Cardnumber</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Kushal</t>
+  </si>
+  <si>
+    <t>Mayank</t>
+  </si>
+  <si>
+    <t>ebiztesting8@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +200,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -196,7 +231,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -205,6 +240,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -503,7 +542,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -545,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2">
         <v>123456</v>
@@ -561,10 +600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="F8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -586,9 +625,11 @@
     <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:26">
       <c r="A1">
         <v>0</v>
       </c>
@@ -652,13 +693,28 @@
       <c r="U1">
         <v>20</v>
       </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="7">
+        <v>22</v>
+      </c>
+      <c r="X1" s="9">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -669,78 +725,93 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>19</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>20</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>22</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="S3" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="T3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
       <c r="G4">
         <v>912</v>
@@ -749,43 +820,58 @@
         <v>38880</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J4">
         <v>38119</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" t="s">
         <v>31</v>
       </c>
-      <c r="O4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
         <v>33</v>
       </c>
-      <c r="R4" t="s">
+      <c r="U4" t="s">
         <v>34</v>
       </c>
-      <c r="S4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" t="s">
-        <v>35</v>
-      </c>
-      <c r="U4" t="s">
-        <v>36</v>
+      <c r="V4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y4">
+        <v>2019</v>
+      </c>
+      <c r="Z4">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -795,16 +881,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/java/com/ep/test/data/TestData.xlsx
+++ b/src/main/java/com/ep/test/data/TestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15135" windowHeight="4140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15135" windowHeight="5040"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="StudentForm" sheetId="2" r:id="rId2"/>
+    <sheet name="Signup" sheetId="3" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId2"/>
+    <sheet name="StudentForm" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="S1:AA12"/>
+  <oleSize ref="A1:M15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>Login</t>
   </si>
@@ -162,7 +163,37 @@
     <t>Mayank</t>
   </si>
   <si>
-    <t>ebiztesting8@gmail.com</t>
+    <t>Signup</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>williams</t>
+  </si>
+  <si>
+    <t>6136 Walraven Cir</t>
+  </si>
+  <si>
+    <t>jamesrobert441@gmail.com</t>
+  </si>
+  <si>
+    <t>Memphis</t>
   </si>
 </sst>
 </file>
@@ -172,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,21 +237,55 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -231,7 +296,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -244,6 +309,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -539,10 +608,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4">
+        <v>123456</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4">
+        <v>38119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -584,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>123456</v>
@@ -598,12 +782,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="E8:F8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/main/java/com/ep/test/data/TestData.xlsx
+++ b/src/main/java/com/ep/test/data/TestData.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15135" windowHeight="5040"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15135" windowHeight="5040" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Signup" sheetId="3" r:id="rId1"/>
     <sheet name="Login" sheetId="1" r:id="rId2"/>
     <sheet name="StudentForm" sheetId="2" r:id="rId3"/>
+    <sheet name="Contactus" sheetId="4" r:id="rId4"/>
+    <sheet name="ChangePassword" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:M15"/>
+  <oleSize ref="A1:L15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>Login</t>
   </si>
@@ -194,6 +196,48 @@
   </si>
   <si>
     <t>Memphis</t>
+  </si>
+  <si>
+    <t>Contactus</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>mailid</t>
+  </si>
+  <si>
+    <t>Ph</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Thota</t>
+  </si>
+  <si>
+    <t>eBiz Solutions</t>
+  </si>
+  <si>
+    <t>This sample checking for contact us</t>
+  </si>
+  <si>
+    <t>ChangePassword</t>
+  </si>
+  <si>
+    <t>CurrentPassword</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>mani123</t>
   </si>
 </sst>
 </file>
@@ -610,7 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -726,7 +770,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1065,4 +1109,180 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4">
+        <v>38119</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4">
+        <v>1234567</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/ep/test/data/TestData.xlsx
+++ b/src/main/java/com/ep/test/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15135" windowHeight="5040" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15135" windowHeight="5040"/>
   </bookViews>
   <sheets>
     <sheet name="Signup" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="ChangePassword" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:L15"/>
+  <oleSize ref="A1:J15"/>
 </workbook>
 </file>
 
@@ -654,7 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -830,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -1232,7 +1232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/com/ep/test/data/TestData.xlsx
+++ b/src/main/java/com/ep/test/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15135" windowHeight="5040"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15435" windowHeight="3615" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Signup" sheetId="3" r:id="rId1"/>
@@ -14,12 +14,11 @@
     <sheet name="ChangePassword" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:J15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="149">
   <si>
     <t>Login</t>
   </si>
@@ -27,12 +26,6 @@
     <t>RunMode</t>
   </si>
   <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>FbPasswod</t>
-  </si>
-  <si>
     <t>mani6747@gmail.com</t>
   </si>
   <si>
@@ -45,21 +38,12 @@
     <t>Middlename</t>
   </si>
   <si>
-    <t>SSN</t>
-  </si>
-  <si>
     <t>Grade</t>
   </si>
   <si>
-    <t>Studentid</t>
-  </si>
-  <si>
     <t>DOB</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>Zip</t>
   </si>
   <si>
@@ -69,9 +53,6 @@
     <t>Cell</t>
   </si>
   <si>
-    <t>Emailaddress</t>
-  </si>
-  <si>
     <t>Parentemployer</t>
   </si>
   <si>
@@ -84,18 +65,6 @@
     <t>Relationtochild</t>
   </si>
   <si>
-    <t>Pickuppersonname</t>
-  </si>
-  <si>
-    <t>PickuppersonTelephone</t>
-  </si>
-  <si>
-    <t>Jhon</t>
-  </si>
-  <si>
-    <t>979-87-8787</t>
-  </si>
-  <si>
     <t>K4</t>
   </si>
   <si>
@@ -111,15 +80,9 @@
     <t>IT Industry</t>
   </si>
   <si>
-    <t>Daren</t>
-  </si>
-  <si>
     <t>Uncel</t>
   </si>
   <si>
-    <t>Josep</t>
-  </si>
-  <si>
     <t>Parent</t>
   </si>
   <si>
@@ -153,81 +116,30 @@
     <t>Year</t>
   </si>
   <si>
-    <t>4111111111111111</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>Kushal</t>
-  </si>
-  <si>
-    <t>Mayank</t>
-  </si>
-  <si>
     <t>Signup</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
     <t>Zipcode</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Mason</t>
-  </si>
-  <si>
-    <t>williams</t>
-  </si>
-  <si>
-    <t>6136 Walraven Cir</t>
-  </si>
-  <si>
-    <t>jamesrobert441@gmail.com</t>
-  </si>
-  <si>
     <t>Memphis</t>
   </si>
   <si>
     <t>Contactus</t>
   </si>
   <si>
-    <t>Fname</t>
-  </si>
-  <si>
-    <t>lname</t>
-  </si>
-  <si>
-    <t>mailid</t>
-  </si>
-  <si>
-    <t>Ph</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
     <t>Thota</t>
   </si>
   <si>
-    <t>eBiz Solutions</t>
-  </si>
-  <si>
-    <t>This sample checking for contact us</t>
-  </si>
-  <si>
     <t>ChangePassword</t>
   </si>
   <si>
@@ -238,6 +150,321 @@
   </si>
   <si>
     <t>mani123</t>
+  </si>
+  <si>
+    <t>Schoolname</t>
+  </si>
+  <si>
+    <t>Chlidname</t>
+  </si>
+  <si>
+    <t>Belle Forest</t>
+  </si>
+  <si>
+    <t>Monroe</t>
+  </si>
+  <si>
+    <t>This is sample test to check for contact us</t>
+  </si>
+  <si>
+    <t>Tamara</t>
+  </si>
+  <si>
+    <t>Neal</t>
+  </si>
+  <si>
+    <t>3874 Hobson Rd</t>
+  </si>
+  <si>
+    <t>901-644-7614</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Barnes</t>
+  </si>
+  <si>
+    <t>Joidan</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Whatisthe504for</t>
+  </si>
+  <si>
+    <t>Qa check</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>ECG</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Zip1</t>
+  </si>
+  <si>
+    <t>Home1</t>
+  </si>
+  <si>
+    <t>Cell1</t>
+  </si>
+  <si>
+    <t>EmailAddress1</t>
+  </si>
+  <si>
+    <t>Parentemployer1</t>
+  </si>
+  <si>
+    <t>Telephone1</t>
+  </si>
+  <si>
+    <t>Cell2</t>
+  </si>
+  <si>
+    <t>EmailAddress2</t>
+  </si>
+  <si>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>Relationtochild1</t>
+  </si>
+  <si>
+    <t>Cell3</t>
+  </si>
+  <si>
+    <t>EmailAddress3</t>
+  </si>
+  <si>
+    <t>Pickupname1</t>
+  </si>
+  <si>
+    <t>PickuppersonTelephone1</t>
+  </si>
+  <si>
+    <t>Pickupname2</t>
+  </si>
+  <si>
+    <t>PickuppersonTelephone2</t>
+  </si>
+  <si>
+    <t>Pickupname3</t>
+  </si>
+  <si>
+    <t>PickuppersonTelephone3</t>
+  </si>
+  <si>
+    <t>PickuppersonTelephone4</t>
+  </si>
+  <si>
+    <t>Pickupname4</t>
+  </si>
+  <si>
+    <t>Pickupname5</t>
+  </si>
+  <si>
+    <t>PickuppersonTelephone5</t>
+  </si>
+  <si>
+    <t>PickuppersonTelephone6</t>
+  </si>
+  <si>
+    <t>Pickupname6</t>
+  </si>
+  <si>
+    <t>Pickupname7</t>
+  </si>
+  <si>
+    <t>PickuppersonTelephone7</t>
+  </si>
+  <si>
+    <t>PickuppersonTelephone8</t>
+  </si>
+  <si>
+    <t>Pickupname8</t>
+  </si>
+  <si>
+    <t>Pickupname9</t>
+  </si>
+  <si>
+    <t>PickuppersonTelephone9</t>
+  </si>
+  <si>
+    <t>PickuppersonTelephone10</t>
+  </si>
+  <si>
+    <t>Pickupname10</t>
+  </si>
+  <si>
+    <t>3130 Poe Road</t>
+  </si>
+  <si>
+    <t>843-270-4609</t>
+  </si>
+  <si>
+    <t>901-341-9865</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>901-764-9765</t>
+  </si>
+  <si>
+    <t>901-239-0987</t>
+  </si>
+  <si>
+    <t>DawnWParker@armyspy.com</t>
+  </si>
+  <si>
+    <t>Dawn W. Parker</t>
+  </si>
+  <si>
+    <t>Sylvia R. Troupe</t>
+  </si>
+  <si>
+    <t>Grandmother</t>
+  </si>
+  <si>
+    <t>901-541-1357</t>
+  </si>
+  <si>
+    <t>SylviaRTroupe@armyspy.com</t>
+  </si>
+  <si>
+    <t>Kelly C. Ardis</t>
+  </si>
+  <si>
+    <t>773-508-4709</t>
+  </si>
+  <si>
+    <t>Fredrick W. Darling</t>
+  </si>
+  <si>
+    <t>206-645-0609</t>
+  </si>
+  <si>
+    <t>Thomas A. Bown</t>
+  </si>
+  <si>
+    <t>518-708-1450</t>
+  </si>
+  <si>
+    <t>Charles E. Mercer</t>
+  </si>
+  <si>
+    <t>509-571-3692</t>
+  </si>
+  <si>
+    <t>Pamela J. Francis</t>
+  </si>
+  <si>
+    <t>208-857-1753</t>
+  </si>
+  <si>
+    <t>Jenny R. Lemaster</t>
+  </si>
+  <si>
+    <t>678-480-3308</t>
+  </si>
+  <si>
+    <t>Loren K. Tuthill</t>
+  </si>
+  <si>
+    <t>904-840-1169</t>
+  </si>
+  <si>
+    <t>Allan J. Maple</t>
+  </si>
+  <si>
+    <t>602-263-5254</t>
+  </si>
+  <si>
+    <t>Norma R. Columbus</t>
+  </si>
+  <si>
+    <t>407-846-0133</t>
+  </si>
+  <si>
+    <t>Jess L. Roberts</t>
+  </si>
+  <si>
+    <t>920-478-6572</t>
+  </si>
+  <si>
+    <t>Stateid</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>4444444444444448</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Suite 226</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Passwod</t>
+  </si>
+  <si>
+    <t>Phonenumber</t>
+  </si>
+  <si>
+    <t>Signuppassword</t>
+  </si>
+  <si>
+    <t>Parentaddress</t>
+  </si>
+  <si>
+    <t>Parentaddress1</t>
+  </si>
+  <si>
+    <t>ContactFirstName</t>
+  </si>
+  <si>
+    <t>ContactLastName</t>
+  </si>
+  <si>
+    <t>Contactemail</t>
+  </si>
+  <si>
+    <t>Contactphone</t>
+  </si>
+  <si>
+    <t>WesleyBHerndon@gmail.com</t>
+  </si>
+  <si>
+    <t>HospitalorClinic</t>
+  </si>
+  <si>
+    <t>Physician</t>
+  </si>
+  <si>
+    <t>PhysicianAddress</t>
+  </si>
+  <si>
+    <t>PhysicianTelephone</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Lucille J. Perez</t>
+  </si>
+  <si>
+    <t>4736 Christie Way</t>
+  </si>
+  <si>
+    <t>978-848-0777</t>
   </si>
 </sst>
 </file>
@@ -247,7 +474,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,29 +496,34 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -340,23 +572,34 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -654,108 +897,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="10"/>
+    <col min="9" max="9" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1">
+      <c r="A1" s="10">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="10">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="10">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="10">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="10">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="10">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="10">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="10">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>48</v>
+      <c r="A2" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="F3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="D4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I3" t="s">
+      <c r="E4" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4">
+      <c r="G4" s="10">
         <v>123456</v>
       </c>
-      <c r="H4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="10">
         <v>38119</v>
       </c>
     </row>
@@ -770,7 +1017,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -801,20 +1048,20 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>123456</v>
       </c>
     </row>
@@ -828,36 +1075,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BC14" sqref="BC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="9"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.42578125" customWidth="1"/>
+    <col min="21" max="21" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.42578125" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23" customWidth="1"/>
+    <col min="36" max="36" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23" customWidth="1"/>
+    <col min="38" max="38" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23" customWidth="1"/>
+    <col min="40" max="40" width="16" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23" customWidth="1"/>
+    <col min="42" max="42" width="17" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="23" customWidth="1"/>
+    <col min="46" max="46" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="23" customWidth="1"/>
+    <col min="48" max="48" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23" customWidth="1"/>
+    <col min="50" max="50" width="14" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="25" bestFit="1" customWidth="1"/>
+    <col min="52" max="55" width="25" customWidth="1"/>
+    <col min="56" max="56" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:62">
       <c r="A1">
         <v>0</v>
       </c>
@@ -924,10 +1206,10 @@
       <c r="V1">
         <v>21</v>
       </c>
-      <c r="W1" s="7">
+      <c r="W1">
         <v>22</v>
       </c>
-      <c r="X1" s="9">
+      <c r="X1">
         <v>23</v>
       </c>
       <c r="Y1">
@@ -936,199 +1218,530 @@
       <c r="Z1">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="5">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="7">
+        <v>59</v>
+      </c>
+      <c r="BI1">
+        <v>60</v>
+      </c>
+      <c r="BJ1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="N3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
+      <c r="P3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
+      <c r="Q3" t="s">
+        <v>135</v>
+      </c>
+      <c r="R3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="s">
+      <c r="Y3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
+      <c r="Z3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" ht="15.75">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <v>4119585</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="M3" t="s">
+      <c r="G4" s="3">
+        <v>38880</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N3" t="s">
+      <c r="K4">
+        <v>38119</v>
+      </c>
+      <c r="L4" t="s">
         <v>17</v>
       </c>
-      <c r="O3" t="s">
+      <c r="M4" t="s">
         <v>18</v>
       </c>
-      <c r="P3" t="s">
+      <c r="N4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4">
+        <v>29492</v>
+      </c>
+      <c r="S4" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" t="s">
+        <v>95</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="V4" t="s">
+        <v>96</v>
+      </c>
+      <c r="W4" t="s">
+        <v>97</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y4" t="s">
         <v>20</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Z4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP4" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV4" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA4" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB4" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC4" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD4" t="s">
         <v>21</v>
       </c>
-      <c r="S3" t="s">
+      <c r="BE4" t="s">
         <v>22</v>
       </c>
-      <c r="T3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>912</v>
-      </c>
-      <c r="H4" s="4">
-        <v>38880</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4">
-        <v>38119</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="BF4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="BG4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y4">
+      <c r="BI4">
         <v>2019</v>
       </c>
-      <c r="Z4">
-        <v>111</v>
-      </c>
+      <c r="BJ4">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" ht="15.75">
+      <c r="BB5" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M4" r:id="rId1"/>
+    <hyperlink ref="N4" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://nameberry.com/babyname/William"/>
+    <hyperlink ref="U4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1150,74 +1763,65 @@
       <c r="G1">
         <v>6</v>
       </c>
-      <c r="I1">
+      <c r="H1">
         <v>7</v>
       </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4">
-        <v>38119</v>
-      </c>
-      <c r="I4" t="s">
-        <v>68</v>
+        <v>46</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1225,6 +1829,7 @@
     <hyperlink ref="D4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1233,7 +1838,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1257,7 +1862,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1265,21 +1870,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B4">
-        <v>1234567</v>
+        <v>123456</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/ep/test/data/TestData.xlsx
+++ b/src/main/java/com/ep/test/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15435" windowHeight="3615" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15435" windowHeight="5040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Signup" sheetId="3" r:id="rId1"/>
@@ -527,7 +527,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,6 +537,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,17 +556,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,34 +578,40 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -898,111 +910,120 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="10"/>
-    <col min="9" max="9" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="10">
+      <c r="A1" s="24">
         <v>0</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="24">
         <v>1</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="24">
         <v>2</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="24">
         <v>3</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="24">
         <v>4</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="24">
         <v>5</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="24">
         <v>6</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="24">
         <v>7</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="24">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="5">
         <v>123456</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="5">
         <v>38119</v>
       </c>
     </row>
@@ -1016,15 +1037,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1039,29 +1060,31 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="13">
         <v>123456</v>
       </c>
     </row>
@@ -1077,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BC14" sqref="BC14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1088,7 +1111,7 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -1135,8 +1158,8 @@
     <col min="52" max="55" width="25" customWidth="1"/>
     <col min="56" max="56" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.140625" style="7"/>
+    <col min="59" max="59" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62">
@@ -1314,10 +1337,10 @@
       <c r="BF1">
         <v>57</v>
       </c>
-      <c r="BG1" s="5">
+      <c r="BG1" s="1">
         <v>58</v>
       </c>
-      <c r="BH1" s="7">
+      <c r="BH1" s="2">
         <v>59</v>
       </c>
       <c r="BI1">
@@ -1327,389 +1350,391 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:62">
-      <c r="A2" t="s">
+    <row r="2" spans="1:62" s="11" customFormat="1">
+      <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:62">
-      <c r="A3" t="s">
+      <c r="BG2" s="14"/>
+      <c r="BH2" s="15"/>
+    </row>
+    <row r="3" spans="1:62" s="11" customFormat="1">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AH3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AK3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AL3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AM3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AN3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AO3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AP3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AQ3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AR3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AS3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AT3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AU3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AV3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AW3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AX3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AY3" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="AZ3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BA3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BB3" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BC3" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BD3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BE3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BF3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="BG3" s="5" t="s">
+      <c r="BG3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="BH3" s="7" t="s">
+      <c r="BH3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BI3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BJ3" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="15.75">
-      <c r="A4" t="s">
+    <row r="4" spans="1:62" s="11" customFormat="1" ht="15.75">
+      <c r="A4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="11">
         <v>4119585</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="19">
         <v>38880</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="11">
         <v>38119</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="11">
         <v>29492</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AB4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AC4" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AD4" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AE4" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AF4" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG4" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AH4" s="10" t="s">
+      <c r="AH4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AI4" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AJ4" s="10" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AK4" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AL4" s="10" t="s">
+      <c r="AL4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AM4" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="AN4" s="10" t="s">
+      <c r="AN4" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AO4" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AP4" s="10" t="s">
+      <c r="AP4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AQ4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="AR4" s="10" t="s">
+      <c r="AR4" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AS4" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="AT4" s="10" t="s">
+      <c r="AT4" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AU4" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AV4" s="10" t="s">
+      <c r="AV4" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AW4" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="AX4" s="10" t="s">
+      <c r="AX4" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AY4" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="AZ4" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="BA4" s="15" t="s">
+      <c r="BA4" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="BB4" s="11" t="s">
+      <c r="BB4" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="BC4" s="11" t="s">
+      <c r="BC4" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BD4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BE4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BF4" s="4" t="s">
+      <c r="BF4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="BG4" s="6" t="s">
+      <c r="BG4" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="BH4" s="7" t="s">
+      <c r="BH4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" s="11">
         <v>2019</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" s="11">
         <v>983</v>
       </c>
     </row>
     <row r="5" spans="1:62" ht="15.75">
-      <c r="BB5" s="16"/>
+      <c r="BB5" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1726,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1768,59 +1793,66 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1838,7 +1870,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1861,29 +1893,31 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
         <v>40</v>
       </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>123456</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>43</v>
       </c>
     </row>

--- a/src/main/java/com/ep/test/data/TestData.xlsx
+++ b/src/main/java/com/ep/test/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15435" windowHeight="5040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15240" windowHeight="4410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Signup" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="149">
   <si>
     <t>Login</t>
   </si>
@@ -471,10 +471,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +528,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -571,14 +580,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -612,8 +622,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -910,7 +930,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1035,17 +1055,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1055,44 +1075,48 @@
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="30" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13">
-        <v>123456</v>
-      </c>
+      <c r="C4" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/main/java/com/ep/test/data/TestData.xlsx
+++ b/src/main/java/com/ep/test/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15240" windowHeight="4410" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15240" windowHeight="3795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Signup" sheetId="3" r:id="rId1"/>
@@ -14,11 +14,12 @@
     <sheet name="ChangePassword" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:M11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="151">
   <si>
     <t>Login</t>
   </si>
@@ -465,6 +466,12 @@
   </si>
   <si>
     <t>978-848-0777</t>
+  </si>
+  <si>
+    <t>mani1234</t>
+  </si>
+  <si>
+    <t>matchedin5@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -624,13 +631,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1058,14 +1065,14 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1075,7 +1082,7 @@
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="28">
+      <c r="C1" s="27">
         <v>2</v>
       </c>
     </row>
@@ -1084,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="25"/>
-      <c r="C2" s="29"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="25" t="s">
@@ -1093,7 +1100,7 @@
       <c r="B3" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1101,15 +1108,15 @@
       <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>43</v>
+      <c r="B4" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="C5" s="29"/>
+      <c r="C5" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1125,7 +1132,7 @@
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="BI14" sqref="BI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1754,7 +1761,7 @@
         <v>2019</v>
       </c>
       <c r="BJ4" s="11">
-        <v>983</v>
+        <v>714</v>
       </c>
     </row>
     <row r="5" spans="1:62" ht="15.75">
@@ -1894,7 +1901,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1938,11 +1945,11 @@
       <c r="A4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="11">
-        <v>123456</v>
+      <c r="B4" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/ep/test/data/TestData.xlsx
+++ b/src/main/java/com/ep/test/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15240" windowHeight="3795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15240" windowHeight="3795"/>
   </bookViews>
   <sheets>
     <sheet name="Signup" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="ChangePassword" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:M11"/>
 </workbook>
 </file>
 
@@ -936,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1064,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/main/java/com/ep/test/data/TestData.xlsx
+++ b/src/main/java/com/ep/test/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15240" windowHeight="3795"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14895" windowHeight="4155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Signup" sheetId="3" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="ChangePassword" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:M12"/>
 </workbook>
 </file>
 
@@ -594,7 +595,7 @@
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -628,15 +629,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -935,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1063,15 +1063,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1081,33 +1081,33 @@
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="27">
+      <c r="C1" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>150</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -1115,7 +1115,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="C5" s="28"/>
+      <c r="C5" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/main/java/com/ep/test/data/TestData.xlsx
+++ b/src/main/java/com/ep/test/data/TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2520" windowWidth="14895" windowHeight="4155" activeTab="1"/>
@@ -13,8 +13,7 @@
     <sheet name="Contactus" sheetId="4" r:id="rId4"/>
     <sheet name="ChangePassword" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <oleSize ref="A1:M12"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -471,7 +470,7 @@
     <t>mani1234</t>
   </si>
   <si>
-    <t>matchedin5@gmail.com</t>
+    <t>ebiztesting51@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -483,7 +482,7 @@
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,6 +540,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -633,10 +638,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1064,7 +1069,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1107,10 +1112,10 @@
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1118,11 +1123,8 @@
       <c r="C5" s="26"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/java/com/ep/test/data/TestData.xlsx
+++ b/src/main/java/com/ep/test/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14895" windowHeight="4155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15420" windowHeight="2280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Signup" sheetId="3" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="ChangePassword" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:M6"/>
 </workbook>
 </file>
 
@@ -179,12 +180,6 @@
     <t>901-644-7614</t>
   </si>
   <si>
-    <t xml:space="preserve"> Barnes</t>
-  </si>
-  <si>
-    <t>Joidan</t>
-  </si>
-  <si>
     <t>Alexandria</t>
   </si>
   <si>
@@ -470,19 +465,24 @@
     <t>mani1234</t>
   </si>
   <si>
-    <t>ebiztesting51@gmail.com</t>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>123456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,16 +535,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="12.1"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -592,15 +586,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -638,13 +631,15 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1011,16 +1006,16 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>34</v>
@@ -1043,7 +1038,7 @@
         <v>51</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>52</v>
@@ -1069,7 +1064,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1102,38 +1097,41 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>150</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" s="26"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ5"/>
+  <dimension ref="A1:BJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BI14" sqref="BI14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1403,7 +1401,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>6</v>
@@ -1412,13 +1410,13 @@
         <v>7</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="J3" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>8</v>
@@ -1430,7 +1428,7 @@
         <v>10</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>11</v>
@@ -1439,25 +1437,25 @@
         <v>12</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="X3" s="7" t="s">
         <v>13</v>
@@ -1466,94 +1464,94 @@
         <v>14</v>
       </c>
       <c r="Z3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AC3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AD3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AE3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AF3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AG3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AH3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AI3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AK3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AL3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AK3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AN3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AM3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN3" s="7" t="s">
+      <c r="AP3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AO3" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP3" s="7" t="s">
+      <c r="AR3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AQ3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR3" s="7" t="s">
+      <c r="AT3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AS3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT3" s="7" t="s">
+      <c r="AV3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AU3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV3" s="7" t="s">
+      <c r="AX3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AW3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AX3" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY3" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="AZ3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="BB3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="BA3" s="7" t="s">
+      <c r="BC3" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="BB3" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="BC3" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="BD3" s="7" t="s">
         <v>24</v>
@@ -1582,13 +1580,13 @@
         <v>23</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="E4" s="11">
         <v>4119585</v>
@@ -1600,10 +1598,10 @@
         <v>38880</v>
       </c>
       <c r="H4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>59</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>16</v>
@@ -1627,121 +1625,121 @@
         <v>17</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R4" s="11">
         <v>29492</v>
       </c>
       <c r="S4" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="V4" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="W4" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="U4" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="X4" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Y4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AA4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AE4" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AF4" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AG4" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AH4" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AI4" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AH4" s="5" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AK4" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AL4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AK4" s="11" t="s">
+      <c r="AM4" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AL4" s="5" t="s">
+      <c r="AN4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AM4" s="11" t="s">
+      <c r="AO4" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="AN4" s="5" t="s">
+      <c r="AP4" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AO4" s="11" t="s">
+      <c r="AQ4" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AP4" s="5" t="s">
+      <c r="AR4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AQ4" s="11" t="s">
+      <c r="AS4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="AR4" s="5" t="s">
+      <c r="AT4" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AS4" s="11" t="s">
+      <c r="AU4" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="AT4" s="5" t="s">
+      <c r="AV4" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AU4" s="11" t="s">
+      <c r="AW4" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AV4" s="5" t="s">
+      <c r="AX4" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AW4" s="11" t="s">
+      <c r="AY4" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="AX4" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY4" s="11" t="s">
-        <v>124</v>
-      </c>
       <c r="AZ4" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="BA4" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="BB4" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="BA4" s="20" t="s">
+      <c r="BC4" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="BB4" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="BC4" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="BD4" s="11" t="s">
         <v>21</v>
@@ -1753,7 +1751,7 @@
         <v>28</v>
       </c>
       <c r="BG4" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BH4" s="15" t="s">
         <v>32</v>
@@ -1767,6 +1765,18 @@
     </row>
     <row r="5" spans="1:62" ht="15.75">
       <c r="BB5" s="4"/>
+    </row>
+    <row r="10" spans="1:62" ht="15.75">
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:62" ht="15.75">
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:62" ht="15.75">
+      <c r="D12" s="29"/>
+    </row>
+    <row r="17" spans="6:6" ht="15.75">
+      <c r="F17" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1841,16 +1851,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>44</v>
@@ -1950,7 +1960,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/ep/test/data/TestData.xlsx
+++ b/src/main/java/com/ep/test/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15420" windowHeight="2280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15420" windowHeight="2280" tabRatio="377" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Signup" sheetId="3" r:id="rId1"/>
@@ -14,12 +14,11 @@
     <sheet name="ChangePassword" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:M6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="155">
   <si>
     <t>Login</t>
   </si>
@@ -105,9 +104,6 @@
     <t>Cardnumber</t>
   </si>
   <si>
-    <t>Visa</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
@@ -150,9 +146,6 @@
     <t>NewPassword</t>
   </si>
   <si>
-    <t>mani123</t>
-  </si>
-  <si>
     <t>Schoolname</t>
   </si>
   <si>
@@ -180,9 +173,6 @@
     <t>901-644-7614</t>
   </si>
   <si>
-    <t>Alexandria</t>
-  </si>
-  <si>
     <t>Whatisthe504for</t>
   </si>
   <si>
@@ -396,9 +386,6 @@
     <t>EmailAddress</t>
   </si>
   <si>
-    <t>4444444444444448</t>
-  </si>
-  <si>
     <t>Address2</t>
   </si>
   <si>
@@ -465,13 +452,37 @@
     <t>mani1234</t>
   </si>
   <si>
-    <t>Edward</t>
-  </si>
-  <si>
-    <t>Lopez</t>
+    <t>elopuser</t>
   </si>
   <si>
     <t>123456</t>
+  </si>
+  <si>
+    <t>LegalParentGuardianName1</t>
+  </si>
+  <si>
+    <t>Emma Daren</t>
+  </si>
+  <si>
+    <t>Willie</t>
+  </si>
+  <si>
+    <t>Renz</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>5111010030175156</t>
+  </si>
+  <si>
+    <t>Master Card</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>2019</t>
   </si>
 </sst>
 </file>
@@ -504,19 +515,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -540,6 +539,19 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -593,51 +605,63 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -936,7 +960,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -954,37 +978,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="24">
+      <c r="A1" s="21">
         <v>0</v>
       </c>
-      <c r="B1" s="24">
+      <c r="B1" s="21">
         <v>1</v>
       </c>
-      <c r="C1" s="24">
+      <c r="C1" s="21">
         <v>2</v>
       </c>
-      <c r="D1" s="24">
+      <c r="D1" s="21">
         <v>3</v>
       </c>
-      <c r="E1" s="24">
+      <c r="E1" s="21">
         <v>4</v>
       </c>
-      <c r="F1" s="24">
+      <c r="F1" s="21">
         <v>5</v>
       </c>
-      <c r="G1" s="24">
+      <c r="G1" s="21">
         <v>6</v>
       </c>
-      <c r="H1" s="24">
+      <c r="H1" s="21">
         <v>7</v>
       </c>
-      <c r="I1" s="24">
+      <c r="I1" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1006,48 +1030,48 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="E4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="5">
-        <v>123456</v>
+      <c r="G4" s="27" t="s">
+        <v>145</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="5">
         <v>38119</v>
@@ -1063,15 +1087,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1081,7 +1105,7 @@
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="25">
+      <c r="C1" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1090,32 +1114,32 @@
         <v>0</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="27"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>150</v>
+      <c r="C4" s="27" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="C5" s="26"/>
+      <c r="C5" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1128,21 +1152,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ17"/>
+  <dimension ref="A1:PD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BK11" sqref="BK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -1188,18 +1212,21 @@
     <col min="52" max="55" width="25" customWidth="1"/>
     <col min="56" max="56" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="9.140625" style="2"/>
+    <col min="63" max="63" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="420" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:420">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="29">
         <v>2</v>
       </c>
       <c r="D1">
@@ -1379,29 +1406,390 @@
       <c r="BJ1">
         <v>61</v>
       </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" s="11" customFormat="1">
+    <row r="2" spans="1:420" s="11" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="BG2" s="14"/>
-      <c r="BH2" s="15"/>
+      <c r="C2" s="30"/>
+      <c r="BG2" s="13"/>
+      <c r="BH2" s="14"/>
+      <c r="BL2" s="32"/>
+      <c r="BM2" s="32"/>
+      <c r="BN2" s="32"/>
+      <c r="BO2" s="32"/>
+      <c r="BP2" s="32"/>
+      <c r="BQ2" s="32"/>
+      <c r="BR2" s="32"/>
+      <c r="BS2" s="32"/>
+      <c r="BT2" s="32"/>
+      <c r="BU2" s="32"/>
+      <c r="BV2" s="32"/>
+      <c r="BW2" s="32"/>
+      <c r="BX2" s="32"/>
+      <c r="BY2" s="32"/>
+      <c r="BZ2" s="32"/>
+      <c r="CA2" s="32"/>
+      <c r="CB2" s="32"/>
+      <c r="CC2" s="32"/>
+      <c r="CD2" s="32"/>
+      <c r="CE2" s="32"/>
+      <c r="CF2" s="32"/>
+      <c r="CG2" s="32"/>
+      <c r="CH2" s="32"/>
+      <c r="CI2" s="32"/>
+      <c r="CJ2" s="32"/>
+      <c r="CK2" s="32"/>
+      <c r="CL2" s="32"/>
+      <c r="CM2" s="32"/>
+      <c r="CN2" s="32"/>
+      <c r="CO2" s="32"/>
+      <c r="CP2" s="32"/>
+      <c r="CQ2" s="32"/>
+      <c r="CR2" s="32"/>
+      <c r="CS2" s="32"/>
+      <c r="CT2" s="32"/>
+      <c r="CU2" s="32"/>
+      <c r="CV2" s="32"/>
+      <c r="CW2" s="32"/>
+      <c r="CX2" s="32"/>
+      <c r="CY2" s="32"/>
+      <c r="CZ2" s="32"/>
+      <c r="DA2" s="32"/>
+      <c r="DB2" s="32"/>
+      <c r="DC2" s="32"/>
+      <c r="DD2" s="32"/>
+      <c r="DE2" s="32"/>
+      <c r="DF2" s="32"/>
+      <c r="DG2" s="32"/>
+      <c r="DH2" s="32"/>
+      <c r="DI2" s="32"/>
+      <c r="DJ2" s="32"/>
+      <c r="DK2" s="32"/>
+      <c r="DL2" s="32"/>
+      <c r="DM2" s="32"/>
+      <c r="DN2" s="32"/>
+      <c r="DO2" s="32"/>
+      <c r="DP2" s="32"/>
+      <c r="DQ2" s="32"/>
+      <c r="DR2" s="32"/>
+      <c r="DS2" s="32"/>
+      <c r="DT2" s="32"/>
+      <c r="DU2" s="32"/>
+      <c r="DV2" s="32"/>
+      <c r="DW2" s="32"/>
+      <c r="DX2" s="32"/>
+      <c r="DY2" s="32"/>
+      <c r="DZ2" s="32"/>
+      <c r="EA2" s="32"/>
+      <c r="EB2" s="32"/>
+      <c r="EC2" s="32"/>
+      <c r="ED2" s="32"/>
+      <c r="EE2" s="32"/>
+      <c r="EF2" s="32"/>
+      <c r="EG2" s="32"/>
+      <c r="EH2" s="32"/>
+      <c r="EI2" s="32"/>
+      <c r="EJ2" s="32"/>
+      <c r="EK2" s="32"/>
+      <c r="EL2" s="32"/>
+      <c r="EM2" s="32"/>
+      <c r="EN2" s="32"/>
+      <c r="EO2" s="32"/>
+      <c r="EP2" s="32"/>
+      <c r="EQ2" s="32"/>
+      <c r="ER2" s="32"/>
+      <c r="ES2" s="32"/>
+      <c r="ET2" s="32"/>
+      <c r="EU2" s="32"/>
+      <c r="EV2" s="32"/>
+      <c r="EW2" s="32"/>
+      <c r="EX2" s="32"/>
+      <c r="EY2" s="32"/>
+      <c r="EZ2" s="32"/>
+      <c r="FA2" s="32"/>
+      <c r="FB2" s="32"/>
+      <c r="FC2" s="32"/>
+      <c r="FD2" s="32"/>
+      <c r="FE2" s="32"/>
+      <c r="FF2" s="32"/>
+      <c r="FG2" s="32"/>
+      <c r="FH2" s="32"/>
+      <c r="FI2" s="32"/>
+      <c r="FJ2" s="32"/>
+      <c r="FK2" s="32"/>
+      <c r="FL2" s="32"/>
+      <c r="FM2" s="32"/>
+      <c r="FN2" s="32"/>
+      <c r="FO2" s="32"/>
+      <c r="FP2" s="32"/>
+      <c r="FQ2" s="32"/>
+      <c r="FR2" s="32"/>
+      <c r="FS2" s="32"/>
+      <c r="FT2" s="32"/>
+      <c r="FU2" s="32"/>
+      <c r="FV2" s="32"/>
+      <c r="FW2" s="32"/>
+      <c r="FX2" s="32"/>
+      <c r="FY2" s="32"/>
+      <c r="FZ2" s="32"/>
+      <c r="GA2" s="32"/>
+      <c r="GB2" s="32"/>
+      <c r="GC2" s="32"/>
+      <c r="GD2" s="32"/>
+      <c r="GE2" s="32"/>
+      <c r="GF2" s="32"/>
+      <c r="GG2" s="32"/>
+      <c r="GH2" s="32"/>
+      <c r="GI2" s="32"/>
+      <c r="GJ2" s="32"/>
+      <c r="GK2" s="32"/>
+      <c r="GL2" s="32"/>
+      <c r="GM2" s="32"/>
+      <c r="GN2" s="32"/>
+      <c r="GO2" s="32"/>
+      <c r="GP2" s="32"/>
+      <c r="GQ2" s="32"/>
+      <c r="GR2" s="32"/>
+      <c r="GS2" s="32"/>
+      <c r="GT2" s="32"/>
+      <c r="GU2" s="32"/>
+      <c r="GV2" s="32"/>
+      <c r="GW2" s="32"/>
+      <c r="GX2" s="32"/>
+      <c r="GY2" s="32"/>
+      <c r="GZ2" s="32"/>
+      <c r="HA2" s="32"/>
+      <c r="HB2" s="32"/>
+      <c r="HC2" s="32"/>
+      <c r="HD2" s="32"/>
+      <c r="HE2" s="32"/>
+      <c r="HF2" s="32"/>
+      <c r="HG2" s="32"/>
+      <c r="HH2" s="32"/>
+      <c r="HI2" s="32"/>
+      <c r="HJ2" s="32"/>
+      <c r="HK2" s="32"/>
+      <c r="HL2" s="32"/>
+      <c r="HM2" s="32"/>
+      <c r="HN2" s="32"/>
+      <c r="HO2" s="32"/>
+      <c r="HP2" s="32"/>
+      <c r="HQ2" s="32"/>
+      <c r="HR2" s="32"/>
+      <c r="HS2" s="32"/>
+      <c r="HT2" s="32"/>
+      <c r="HU2" s="32"/>
+      <c r="HV2" s="32"/>
+      <c r="HW2" s="32"/>
+      <c r="HX2" s="32"/>
+      <c r="HY2" s="32"/>
+      <c r="HZ2" s="32"/>
+      <c r="IA2" s="32"/>
+      <c r="IB2" s="32"/>
+      <c r="IC2" s="32"/>
+      <c r="ID2" s="32"/>
+      <c r="IE2" s="32"/>
+      <c r="IF2" s="32"/>
+      <c r="IG2" s="32"/>
+      <c r="IH2" s="32"/>
+      <c r="II2" s="32"/>
+      <c r="IJ2" s="32"/>
+      <c r="IK2" s="32"/>
+      <c r="IL2" s="32"/>
+      <c r="IM2" s="32"/>
+      <c r="IN2" s="32"/>
+      <c r="IO2" s="32"/>
+      <c r="IP2" s="32"/>
+      <c r="IQ2" s="32"/>
+      <c r="IR2" s="32"/>
+      <c r="IS2" s="32"/>
+      <c r="IT2" s="32"/>
+      <c r="IU2" s="32"/>
+      <c r="IV2" s="32"/>
+      <c r="IW2" s="32"/>
+      <c r="IX2" s="32"/>
+      <c r="IY2" s="32"/>
+      <c r="IZ2" s="32"/>
+      <c r="JA2" s="32"/>
+      <c r="JB2" s="32"/>
+      <c r="JC2" s="32"/>
+      <c r="JD2" s="32"/>
+      <c r="JE2" s="32"/>
+      <c r="JF2" s="32"/>
+      <c r="JG2" s="32"/>
+      <c r="JH2" s="32"/>
+      <c r="JI2" s="32"/>
+      <c r="JJ2" s="32"/>
+      <c r="JK2" s="32"/>
+      <c r="JL2" s="32"/>
+      <c r="JM2" s="32"/>
+      <c r="JN2" s="32"/>
+      <c r="JO2" s="32"/>
+      <c r="JP2" s="32"/>
+      <c r="JQ2" s="32"/>
+      <c r="JR2" s="32"/>
+      <c r="JS2" s="32"/>
+      <c r="JT2" s="32"/>
+      <c r="JU2" s="32"/>
+      <c r="JV2" s="32"/>
+      <c r="JW2" s="32"/>
+      <c r="JX2" s="32"/>
+      <c r="JY2" s="32"/>
+      <c r="JZ2" s="32"/>
+      <c r="KA2" s="32"/>
+      <c r="KB2" s="32"/>
+      <c r="KC2" s="32"/>
+      <c r="KD2" s="32"/>
+      <c r="KE2" s="32"/>
+      <c r="KF2" s="32"/>
+      <c r="KG2" s="32"/>
+      <c r="KH2" s="32"/>
+      <c r="KI2" s="32"/>
+      <c r="KJ2" s="32"/>
+      <c r="KK2" s="32"/>
+      <c r="KL2" s="32"/>
+      <c r="KM2" s="32"/>
+      <c r="KN2" s="32"/>
+      <c r="KO2" s="32"/>
+      <c r="KP2" s="32"/>
+      <c r="KQ2" s="32"/>
+      <c r="KR2" s="32"/>
+      <c r="KS2" s="32"/>
+      <c r="KT2" s="32"/>
+      <c r="KU2" s="32"/>
+      <c r="KV2" s="32"/>
+      <c r="KW2" s="32"/>
+      <c r="KX2" s="32"/>
+      <c r="KY2" s="32"/>
+      <c r="KZ2" s="32"/>
+      <c r="LA2" s="32"/>
+      <c r="LB2" s="32"/>
+      <c r="LC2" s="32"/>
+      <c r="LD2" s="32"/>
+      <c r="LE2" s="32"/>
+      <c r="LF2" s="32"/>
+      <c r="LG2" s="32"/>
+      <c r="LH2" s="32"/>
+      <c r="LI2" s="32"/>
+      <c r="LJ2" s="32"/>
+      <c r="LK2" s="32"/>
+      <c r="LL2" s="32"/>
+      <c r="LM2" s="32"/>
+      <c r="LN2" s="32"/>
+      <c r="LO2" s="32"/>
+      <c r="LP2" s="32"/>
+      <c r="LQ2" s="32"/>
+      <c r="LR2" s="32"/>
+      <c r="LS2" s="32"/>
+      <c r="LT2" s="32"/>
+      <c r="LU2" s="32"/>
+      <c r="LV2" s="32"/>
+      <c r="LW2" s="32"/>
+      <c r="LX2" s="32"/>
+      <c r="LY2" s="32"/>
+      <c r="LZ2" s="32"/>
+      <c r="MA2" s="32"/>
+      <c r="MB2" s="32"/>
+      <c r="MC2" s="32"/>
+      <c r="MD2" s="32"/>
+      <c r="ME2" s="32"/>
+      <c r="MF2" s="32"/>
+      <c r="MG2" s="32"/>
+      <c r="MH2" s="32"/>
+      <c r="MI2" s="32"/>
+      <c r="MJ2" s="32"/>
+      <c r="MK2" s="32"/>
+      <c r="ML2" s="32"/>
+      <c r="MM2" s="32"/>
+      <c r="MN2" s="32"/>
+      <c r="MO2" s="32"/>
+      <c r="MP2" s="32"/>
+      <c r="MQ2" s="32"/>
+      <c r="MR2" s="32"/>
+      <c r="MS2" s="32"/>
+      <c r="MT2" s="32"/>
+      <c r="MU2" s="32"/>
+      <c r="MV2" s="32"/>
+      <c r="MW2" s="32"/>
+      <c r="MX2" s="32"/>
+      <c r="MY2" s="32"/>
+      <c r="MZ2" s="32"/>
+      <c r="NA2" s="32"/>
+      <c r="NB2" s="32"/>
+      <c r="NC2" s="32"/>
+      <c r="ND2" s="32"/>
+      <c r="NE2" s="32"/>
+      <c r="NF2" s="32"/>
+      <c r="NG2" s="32"/>
+      <c r="NH2" s="32"/>
+      <c r="NI2" s="32"/>
+      <c r="NJ2" s="32"/>
+      <c r="NK2" s="32"/>
+      <c r="NL2" s="32"/>
+      <c r="NM2" s="32"/>
+      <c r="NN2" s="32"/>
+      <c r="NO2" s="32"/>
+      <c r="NP2" s="32"/>
+      <c r="NQ2" s="32"/>
+      <c r="NR2" s="32"/>
+      <c r="NS2" s="32"/>
+      <c r="NT2" s="32"/>
+      <c r="NU2" s="32"/>
+      <c r="NV2" s="32"/>
+      <c r="NW2" s="32"/>
+      <c r="NX2" s="32"/>
+      <c r="NY2" s="32"/>
+      <c r="NZ2" s="32"/>
+      <c r="OA2" s="32"/>
+      <c r="OB2" s="32"/>
+      <c r="OC2" s="32"/>
+      <c r="OD2" s="32"/>
+      <c r="OE2" s="32"/>
+      <c r="OF2" s="32"/>
+      <c r="OG2" s="32"/>
+      <c r="OH2" s="32"/>
+      <c r="OI2" s="32"/>
+      <c r="OJ2" s="32"/>
+      <c r="OK2" s="32"/>
+      <c r="OL2" s="32"/>
+      <c r="OM2" s="32"/>
+      <c r="ON2" s="32"/>
+      <c r="OO2" s="32"/>
+      <c r="OP2" s="32"/>
+      <c r="OQ2" s="32"/>
+      <c r="OR2" s="32"/>
+      <c r="OS2" s="32"/>
+      <c r="OT2" s="32"/>
+      <c r="OU2" s="32"/>
+      <c r="OV2" s="32"/>
+      <c r="OW2" s="32"/>
+      <c r="OX2" s="32"/>
+      <c r="OY2" s="32"/>
+      <c r="OZ2" s="32"/>
+      <c r="PA2" s="32"/>
+      <c r="PB2" s="32"/>
+      <c r="PC2" s="32"/>
+      <c r="PD2" s="32"/>
     </row>
-    <row r="3" spans="1:62" s="11" customFormat="1">
+    <row r="3" spans="1:420" s="11" customFormat="1">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>6</v>
@@ -1410,13 +1798,13 @@
         <v>7</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>8</v>
@@ -1428,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>11</v>
@@ -1437,25 +1825,25 @@
         <v>12</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="R3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="X3" s="7" t="s">
         <v>13</v>
@@ -1464,94 +1852,94 @@
         <v>14</v>
       </c>
       <c r="Z3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AD3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AE3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AF3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AG3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AH3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AI3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AK3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AL3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AJ3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AN3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AO3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AM3" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO3" s="7" t="s">
+      <c r="AR3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AP3" s="7" t="s">
+      <c r="AS3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AQ3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS3" s="7" t="s">
+      <c r="AV3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AT3" s="7" t="s">
+      <c r="AW3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AU3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AY3" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="AZ3" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="BA3" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="BB3" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="BC3" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="BD3" s="7" t="s">
         <v>24</v>
@@ -1562,31 +1950,391 @@
       <c r="BF3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="BG3" s="16" t="s">
+      <c r="BG3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="BH3" s="17" t="s">
+      <c r="BH3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="BI3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BJ3" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="BK3" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL3" s="32"/>
+      <c r="BM3" s="32"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="32"/>
+      <c r="BP3" s="32"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="32"/>
+      <c r="BS3" s="32"/>
+      <c r="BT3" s="32"/>
+      <c r="BU3" s="32"/>
+      <c r="BV3" s="32"/>
+      <c r="BW3" s="32"/>
+      <c r="BX3" s="32"/>
+      <c r="BY3" s="32"/>
+      <c r="BZ3" s="32"/>
+      <c r="CA3" s="32"/>
+      <c r="CB3" s="32"/>
+      <c r="CC3" s="32"/>
+      <c r="CD3" s="32"/>
+      <c r="CE3" s="32"/>
+      <c r="CF3" s="32"/>
+      <c r="CG3" s="32"/>
+      <c r="CH3" s="32"/>
+      <c r="CI3" s="32"/>
+      <c r="CJ3" s="32"/>
+      <c r="CK3" s="32"/>
+      <c r="CL3" s="32"/>
+      <c r="CM3" s="32"/>
+      <c r="CN3" s="32"/>
+      <c r="CO3" s="32"/>
+      <c r="CP3" s="32"/>
+      <c r="CQ3" s="32"/>
+      <c r="CR3" s="32"/>
+      <c r="CS3" s="32"/>
+      <c r="CT3" s="32"/>
+      <c r="CU3" s="32"/>
+      <c r="CV3" s="32"/>
+      <c r="CW3" s="32"/>
+      <c r="CX3" s="32"/>
+      <c r="CY3" s="32"/>
+      <c r="CZ3" s="32"/>
+      <c r="DA3" s="32"/>
+      <c r="DB3" s="32"/>
+      <c r="DC3" s="32"/>
+      <c r="DD3" s="32"/>
+      <c r="DE3" s="32"/>
+      <c r="DF3" s="32"/>
+      <c r="DG3" s="32"/>
+      <c r="DH3" s="32"/>
+      <c r="DI3" s="32"/>
+      <c r="DJ3" s="32"/>
+      <c r="DK3" s="32"/>
+      <c r="DL3" s="32"/>
+      <c r="DM3" s="32"/>
+      <c r="DN3" s="32"/>
+      <c r="DO3" s="32"/>
+      <c r="DP3" s="32"/>
+      <c r="DQ3" s="32"/>
+      <c r="DR3" s="32"/>
+      <c r="DS3" s="32"/>
+      <c r="DT3" s="32"/>
+      <c r="DU3" s="32"/>
+      <c r="DV3" s="32"/>
+      <c r="DW3" s="32"/>
+      <c r="DX3" s="32"/>
+      <c r="DY3" s="32"/>
+      <c r="DZ3" s="32"/>
+      <c r="EA3" s="32"/>
+      <c r="EB3" s="32"/>
+      <c r="EC3" s="32"/>
+      <c r="ED3" s="32"/>
+      <c r="EE3" s="32"/>
+      <c r="EF3" s="32"/>
+      <c r="EG3" s="32"/>
+      <c r="EH3" s="32"/>
+      <c r="EI3" s="32"/>
+      <c r="EJ3" s="32"/>
+      <c r="EK3" s="32"/>
+      <c r="EL3" s="32"/>
+      <c r="EM3" s="32"/>
+      <c r="EN3" s="32"/>
+      <c r="EO3" s="32"/>
+      <c r="EP3" s="32"/>
+      <c r="EQ3" s="32"/>
+      <c r="ER3" s="32"/>
+      <c r="ES3" s="32"/>
+      <c r="ET3" s="32"/>
+      <c r="EU3" s="32"/>
+      <c r="EV3" s="32"/>
+      <c r="EW3" s="32"/>
+      <c r="EX3" s="32"/>
+      <c r="EY3" s="32"/>
+      <c r="EZ3" s="32"/>
+      <c r="FA3" s="32"/>
+      <c r="FB3" s="32"/>
+      <c r="FC3" s="32"/>
+      <c r="FD3" s="32"/>
+      <c r="FE3" s="32"/>
+      <c r="FF3" s="32"/>
+      <c r="FG3" s="32"/>
+      <c r="FH3" s="32"/>
+      <c r="FI3" s="32"/>
+      <c r="FJ3" s="32"/>
+      <c r="FK3" s="32"/>
+      <c r="FL3" s="32"/>
+      <c r="FM3" s="32"/>
+      <c r="FN3" s="32"/>
+      <c r="FO3" s="32"/>
+      <c r="FP3" s="32"/>
+      <c r="FQ3" s="32"/>
+      <c r="FR3" s="32"/>
+      <c r="FS3" s="32"/>
+      <c r="FT3" s="32"/>
+      <c r="FU3" s="32"/>
+      <c r="FV3" s="32"/>
+      <c r="FW3" s="32"/>
+      <c r="FX3" s="32"/>
+      <c r="FY3" s="32"/>
+      <c r="FZ3" s="32"/>
+      <c r="GA3" s="32"/>
+      <c r="GB3" s="32"/>
+      <c r="GC3" s="32"/>
+      <c r="GD3" s="32"/>
+      <c r="GE3" s="32"/>
+      <c r="GF3" s="32"/>
+      <c r="GG3" s="32"/>
+      <c r="GH3" s="32"/>
+      <c r="GI3" s="32"/>
+      <c r="GJ3" s="32"/>
+      <c r="GK3" s="32"/>
+      <c r="GL3" s="32"/>
+      <c r="GM3" s="32"/>
+      <c r="GN3" s="32"/>
+      <c r="GO3" s="32"/>
+      <c r="GP3" s="32"/>
+      <c r="GQ3" s="32"/>
+      <c r="GR3" s="32"/>
+      <c r="GS3" s="32"/>
+      <c r="GT3" s="32"/>
+      <c r="GU3" s="32"/>
+      <c r="GV3" s="32"/>
+      <c r="GW3" s="32"/>
+      <c r="GX3" s="32"/>
+      <c r="GY3" s="32"/>
+      <c r="GZ3" s="32"/>
+      <c r="HA3" s="32"/>
+      <c r="HB3" s="32"/>
+      <c r="HC3" s="32"/>
+      <c r="HD3" s="32"/>
+      <c r="HE3" s="32"/>
+      <c r="HF3" s="32"/>
+      <c r="HG3" s="32"/>
+      <c r="HH3" s="32"/>
+      <c r="HI3" s="32"/>
+      <c r="HJ3" s="32"/>
+      <c r="HK3" s="32"/>
+      <c r="HL3" s="32"/>
+      <c r="HM3" s="32"/>
+      <c r="HN3" s="32"/>
+      <c r="HO3" s="32"/>
+      <c r="HP3" s="32"/>
+      <c r="HQ3" s="32"/>
+      <c r="HR3" s="32"/>
+      <c r="HS3" s="32"/>
+      <c r="HT3" s="32"/>
+      <c r="HU3" s="32"/>
+      <c r="HV3" s="32"/>
+      <c r="HW3" s="32"/>
+      <c r="HX3" s="32"/>
+      <c r="HY3" s="32"/>
+      <c r="HZ3" s="32"/>
+      <c r="IA3" s="32"/>
+      <c r="IB3" s="32"/>
+      <c r="IC3" s="32"/>
+      <c r="ID3" s="32"/>
+      <c r="IE3" s="32"/>
+      <c r="IF3" s="32"/>
+      <c r="IG3" s="32"/>
+      <c r="IH3" s="32"/>
+      <c r="II3" s="32"/>
+      <c r="IJ3" s="32"/>
+      <c r="IK3" s="32"/>
+      <c r="IL3" s="32"/>
+      <c r="IM3" s="32"/>
+      <c r="IN3" s="32"/>
+      <c r="IO3" s="32"/>
+      <c r="IP3" s="32"/>
+      <c r="IQ3" s="32"/>
+      <c r="IR3" s="32"/>
+      <c r="IS3" s="32"/>
+      <c r="IT3" s="32"/>
+      <c r="IU3" s="32"/>
+      <c r="IV3" s="32"/>
+      <c r="IW3" s="32"/>
+      <c r="IX3" s="32"/>
+      <c r="IY3" s="32"/>
+      <c r="IZ3" s="32"/>
+      <c r="JA3" s="32"/>
+      <c r="JB3" s="32"/>
+      <c r="JC3" s="32"/>
+      <c r="JD3" s="32"/>
+      <c r="JE3" s="32"/>
+      <c r="JF3" s="32"/>
+      <c r="JG3" s="32"/>
+      <c r="JH3" s="32"/>
+      <c r="JI3" s="32"/>
+      <c r="JJ3" s="32"/>
+      <c r="JK3" s="32"/>
+      <c r="JL3" s="32"/>
+      <c r="JM3" s="32"/>
+      <c r="JN3" s="32"/>
+      <c r="JO3" s="32"/>
+      <c r="JP3" s="32"/>
+      <c r="JQ3" s="32"/>
+      <c r="JR3" s="32"/>
+      <c r="JS3" s="32"/>
+      <c r="JT3" s="32"/>
+      <c r="JU3" s="32"/>
+      <c r="JV3" s="32"/>
+      <c r="JW3" s="32"/>
+      <c r="JX3" s="32"/>
+      <c r="JY3" s="32"/>
+      <c r="JZ3" s="32"/>
+      <c r="KA3" s="32"/>
+      <c r="KB3" s="32"/>
+      <c r="KC3" s="32"/>
+      <c r="KD3" s="32"/>
+      <c r="KE3" s="32"/>
+      <c r="KF3" s="32"/>
+      <c r="KG3" s="32"/>
+      <c r="KH3" s="32"/>
+      <c r="KI3" s="32"/>
+      <c r="KJ3" s="32"/>
+      <c r="KK3" s="32"/>
+      <c r="KL3" s="32"/>
+      <c r="KM3" s="32"/>
+      <c r="KN3" s="32"/>
+      <c r="KO3" s="32"/>
+      <c r="KP3" s="32"/>
+      <c r="KQ3" s="32"/>
+      <c r="KR3" s="32"/>
+      <c r="KS3" s="32"/>
+      <c r="KT3" s="32"/>
+      <c r="KU3" s="32"/>
+      <c r="KV3" s="32"/>
+      <c r="KW3" s="32"/>
+      <c r="KX3" s="32"/>
+      <c r="KY3" s="32"/>
+      <c r="KZ3" s="32"/>
+      <c r="LA3" s="32"/>
+      <c r="LB3" s="32"/>
+      <c r="LC3" s="32"/>
+      <c r="LD3" s="32"/>
+      <c r="LE3" s="32"/>
+      <c r="LF3" s="32"/>
+      <c r="LG3" s="32"/>
+      <c r="LH3" s="32"/>
+      <c r="LI3" s="32"/>
+      <c r="LJ3" s="32"/>
+      <c r="LK3" s="32"/>
+      <c r="LL3" s="32"/>
+      <c r="LM3" s="32"/>
+      <c r="LN3" s="32"/>
+      <c r="LO3" s="32"/>
+      <c r="LP3" s="32"/>
+      <c r="LQ3" s="32"/>
+      <c r="LR3" s="32"/>
+      <c r="LS3" s="32"/>
+      <c r="LT3" s="32"/>
+      <c r="LU3" s="32"/>
+      <c r="LV3" s="32"/>
+      <c r="LW3" s="32"/>
+      <c r="LX3" s="32"/>
+      <c r="LY3" s="32"/>
+      <c r="LZ3" s="32"/>
+      <c r="MA3" s="32"/>
+      <c r="MB3" s="32"/>
+      <c r="MC3" s="32"/>
+      <c r="MD3" s="32"/>
+      <c r="ME3" s="32"/>
+      <c r="MF3" s="32"/>
+      <c r="MG3" s="32"/>
+      <c r="MH3" s="32"/>
+      <c r="MI3" s="32"/>
+      <c r="MJ3" s="32"/>
+      <c r="MK3" s="32"/>
+      <c r="ML3" s="32"/>
+      <c r="MM3" s="32"/>
+      <c r="MN3" s="32"/>
+      <c r="MO3" s="32"/>
+      <c r="MP3" s="32"/>
+      <c r="MQ3" s="32"/>
+      <c r="MR3" s="32"/>
+      <c r="MS3" s="32"/>
+      <c r="MT3" s="32"/>
+      <c r="MU3" s="32"/>
+      <c r="MV3" s="32"/>
+      <c r="MW3" s="32"/>
+      <c r="MX3" s="32"/>
+      <c r="MY3" s="32"/>
+      <c r="MZ3" s="32"/>
+      <c r="NA3" s="32"/>
+      <c r="NB3" s="32"/>
+      <c r="NC3" s="32"/>
+      <c r="ND3" s="32"/>
+      <c r="NE3" s="32"/>
+      <c r="NF3" s="32"/>
+      <c r="NG3" s="32"/>
+      <c r="NH3" s="32"/>
+      <c r="NI3" s="32"/>
+      <c r="NJ3" s="32"/>
+      <c r="NK3" s="32"/>
+      <c r="NL3" s="32"/>
+      <c r="NM3" s="32"/>
+      <c r="NN3" s="32"/>
+      <c r="NO3" s="32"/>
+      <c r="NP3" s="32"/>
+      <c r="NQ3" s="32"/>
+      <c r="NR3" s="32"/>
+      <c r="NS3" s="32"/>
+      <c r="NT3" s="32"/>
+      <c r="NU3" s="32"/>
+      <c r="NV3" s="32"/>
+      <c r="NW3" s="32"/>
+      <c r="NX3" s="32"/>
+      <c r="NY3" s="32"/>
+      <c r="NZ3" s="32"/>
+      <c r="OA3" s="32"/>
+      <c r="OB3" s="32"/>
+      <c r="OC3" s="32"/>
+      <c r="OD3" s="32"/>
+      <c r="OE3" s="32"/>
+      <c r="OF3" s="32"/>
+      <c r="OG3" s="32"/>
+      <c r="OH3" s="32"/>
+      <c r="OI3" s="32"/>
+      <c r="OJ3" s="32"/>
+      <c r="OK3" s="32"/>
+      <c r="OL3" s="32"/>
+      <c r="OM3" s="32"/>
+      <c r="ON3" s="32"/>
+      <c r="OO3" s="32"/>
+      <c r="OP3" s="32"/>
+      <c r="OQ3" s="32"/>
+      <c r="OR3" s="32"/>
+      <c r="OS3" s="32"/>
+      <c r="OT3" s="32"/>
+      <c r="OU3" s="32"/>
+      <c r="OV3" s="32"/>
+      <c r="OW3" s="32"/>
+      <c r="OX3" s="32"/>
+      <c r="OY3" s="32"/>
+      <c r="OZ3" s="32"/>
+      <c r="PA3" s="32"/>
+      <c r="PB3" s="32"/>
+      <c r="PC3" s="32"/>
+      <c r="PD3" s="32"/>
     </row>
-    <row r="4" spans="1:62" s="11" customFormat="1" ht="15.75">
+    <row r="4" spans="1:420" s="11" customFormat="1" ht="15.75">
       <c r="A4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="33" t="s">
         <v>149</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="E4" s="11">
         <v>4119585</v>
@@ -1594,14 +2342,14 @@
       <c r="F4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="17">
         <v>38880</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>57</v>
+      <c r="H4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>16</v>
@@ -1625,121 +2373,121 @@
         <v>17</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="R4" s="11">
         <v>29492</v>
       </c>
       <c r="S4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="W4" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="T4" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="W4" s="11" t="s">
+      <c r="X4" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="Y4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="Z4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AC4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE4" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AF4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AG4" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AH4" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AI4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AH4" s="5" t="s">
+      <c r="AK4" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AL4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AM4" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AK4" s="11" t="s">
+      <c r="AN4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="AL4" s="5" t="s">
+      <c r="AO4" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AM4" s="11" t="s">
+      <c r="AP4" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AN4" s="5" t="s">
+      <c r="AQ4" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AO4" s="11" t="s">
+      <c r="AR4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AP4" s="5" t="s">
+      <c r="AS4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AQ4" s="11" t="s">
+      <c r="AT4" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AR4" s="5" t="s">
+      <c r="AU4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AS4" s="11" t="s">
+      <c r="AV4" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AT4" s="5" t="s">
+      <c r="AW4" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AU4" s="11" t="s">
+      <c r="AX4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="AV4" s="5" t="s">
+      <c r="AY4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="AW4" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX4" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY4" s="11" t="s">
-        <v>122</v>
-      </c>
       <c r="AZ4" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="BA4" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+      <c r="BA4" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="BB4" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="BC4" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="BD4" s="11" t="s">
         <v>21</v>
@@ -1747,36 +2495,396 @@
       <c r="BE4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BF4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="BG4" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="BH4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="BI4" s="11">
-        <v>2019</v>
-      </c>
-      <c r="BJ4" s="11">
-        <v>714</v>
-      </c>
+      <c r="BF4" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="BG4" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="BH4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI4" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="BJ4" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="BK4" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL4" s="32"/>
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32"/>
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="32"/>
+      <c r="BW4" s="32"/>
+      <c r="BX4" s="32"/>
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="32"/>
+      <c r="CJ4" s="32"/>
+      <c r="CK4" s="32"/>
+      <c r="CL4" s="32"/>
+      <c r="CM4" s="32"/>
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="32"/>
+      <c r="CP4" s="32"/>
+      <c r="CQ4" s="32"/>
+      <c r="CR4" s="32"/>
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="32"/>
+      <c r="CU4" s="32"/>
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32"/>
+      <c r="CZ4" s="32"/>
+      <c r="DA4" s="32"/>
+      <c r="DB4" s="32"/>
+      <c r="DC4" s="32"/>
+      <c r="DD4" s="32"/>
+      <c r="DE4" s="32"/>
+      <c r="DF4" s="32"/>
+      <c r="DG4" s="32"/>
+      <c r="DH4" s="32"/>
+      <c r="DI4" s="32"/>
+      <c r="DJ4" s="32"/>
+      <c r="DK4" s="32"/>
+      <c r="DL4" s="32"/>
+      <c r="DM4" s="32"/>
+      <c r="DN4" s="32"/>
+      <c r="DO4" s="32"/>
+      <c r="DP4" s="32"/>
+      <c r="DQ4" s="32"/>
+      <c r="DR4" s="32"/>
+      <c r="DS4" s="32"/>
+      <c r="DT4" s="32"/>
+      <c r="DU4" s="32"/>
+      <c r="DV4" s="32"/>
+      <c r="DW4" s="32"/>
+      <c r="DX4" s="32"/>
+      <c r="DY4" s="32"/>
+      <c r="DZ4" s="32"/>
+      <c r="EA4" s="32"/>
+      <c r="EB4" s="32"/>
+      <c r="EC4" s="32"/>
+      <c r="ED4" s="32"/>
+      <c r="EE4" s="32"/>
+      <c r="EF4" s="32"/>
+      <c r="EG4" s="32"/>
+      <c r="EH4" s="32"/>
+      <c r="EI4" s="32"/>
+      <c r="EJ4" s="32"/>
+      <c r="EK4" s="32"/>
+      <c r="EL4" s="32"/>
+      <c r="EM4" s="32"/>
+      <c r="EN4" s="32"/>
+      <c r="EO4" s="32"/>
+      <c r="EP4" s="32"/>
+      <c r="EQ4" s="32"/>
+      <c r="ER4" s="32"/>
+      <c r="ES4" s="32"/>
+      <c r="ET4" s="32"/>
+      <c r="EU4" s="32"/>
+      <c r="EV4" s="32"/>
+      <c r="EW4" s="32"/>
+      <c r="EX4" s="32"/>
+      <c r="EY4" s="32"/>
+      <c r="EZ4" s="32"/>
+      <c r="FA4" s="32"/>
+      <c r="FB4" s="32"/>
+      <c r="FC4" s="32"/>
+      <c r="FD4" s="32"/>
+      <c r="FE4" s="32"/>
+      <c r="FF4" s="32"/>
+      <c r="FG4" s="32"/>
+      <c r="FH4" s="32"/>
+      <c r="FI4" s="32"/>
+      <c r="FJ4" s="32"/>
+      <c r="FK4" s="32"/>
+      <c r="FL4" s="32"/>
+      <c r="FM4" s="32"/>
+      <c r="FN4" s="32"/>
+      <c r="FO4" s="32"/>
+      <c r="FP4" s="32"/>
+      <c r="FQ4" s="32"/>
+      <c r="FR4" s="32"/>
+      <c r="FS4" s="32"/>
+      <c r="FT4" s="32"/>
+      <c r="FU4" s="32"/>
+      <c r="FV4" s="32"/>
+      <c r="FW4" s="32"/>
+      <c r="FX4" s="32"/>
+      <c r="FY4" s="32"/>
+      <c r="FZ4" s="32"/>
+      <c r="GA4" s="32"/>
+      <c r="GB4" s="32"/>
+      <c r="GC4" s="32"/>
+      <c r="GD4" s="32"/>
+      <c r="GE4" s="32"/>
+      <c r="GF4" s="32"/>
+      <c r="GG4" s="32"/>
+      <c r="GH4" s="32"/>
+      <c r="GI4" s="32"/>
+      <c r="GJ4" s="32"/>
+      <c r="GK4" s="32"/>
+      <c r="GL4" s="32"/>
+      <c r="GM4" s="32"/>
+      <c r="GN4" s="32"/>
+      <c r="GO4" s="32"/>
+      <c r="GP4" s="32"/>
+      <c r="GQ4" s="32"/>
+      <c r="GR4" s="32"/>
+      <c r="GS4" s="32"/>
+      <c r="GT4" s="32"/>
+      <c r="GU4" s="32"/>
+      <c r="GV4" s="32"/>
+      <c r="GW4" s="32"/>
+      <c r="GX4" s="32"/>
+      <c r="GY4" s="32"/>
+      <c r="GZ4" s="32"/>
+      <c r="HA4" s="32"/>
+      <c r="HB4" s="32"/>
+      <c r="HC4" s="32"/>
+      <c r="HD4" s="32"/>
+      <c r="HE4" s="32"/>
+      <c r="HF4" s="32"/>
+      <c r="HG4" s="32"/>
+      <c r="HH4" s="32"/>
+      <c r="HI4" s="32"/>
+      <c r="HJ4" s="32"/>
+      <c r="HK4" s="32"/>
+      <c r="HL4" s="32"/>
+      <c r="HM4" s="32"/>
+      <c r="HN4" s="32"/>
+      <c r="HO4" s="32"/>
+      <c r="HP4" s="32"/>
+      <c r="HQ4" s="32"/>
+      <c r="HR4" s="32"/>
+      <c r="HS4" s="32"/>
+      <c r="HT4" s="32"/>
+      <c r="HU4" s="32"/>
+      <c r="HV4" s="32"/>
+      <c r="HW4" s="32"/>
+      <c r="HX4" s="32"/>
+      <c r="HY4" s="32"/>
+      <c r="HZ4" s="32"/>
+      <c r="IA4" s="32"/>
+      <c r="IB4" s="32"/>
+      <c r="IC4" s="32"/>
+      <c r="ID4" s="32"/>
+      <c r="IE4" s="32"/>
+      <c r="IF4" s="32"/>
+      <c r="IG4" s="32"/>
+      <c r="IH4" s="32"/>
+      <c r="II4" s="32"/>
+      <c r="IJ4" s="32"/>
+      <c r="IK4" s="32"/>
+      <c r="IL4" s="32"/>
+      <c r="IM4" s="32"/>
+      <c r="IN4" s="32"/>
+      <c r="IO4" s="32"/>
+      <c r="IP4" s="32"/>
+      <c r="IQ4" s="32"/>
+      <c r="IR4" s="32"/>
+      <c r="IS4" s="32"/>
+      <c r="IT4" s="32"/>
+      <c r="IU4" s="32"/>
+      <c r="IV4" s="32"/>
+      <c r="IW4" s="32"/>
+      <c r="IX4" s="32"/>
+      <c r="IY4" s="32"/>
+      <c r="IZ4" s="32"/>
+      <c r="JA4" s="32"/>
+      <c r="JB4" s="32"/>
+      <c r="JC4" s="32"/>
+      <c r="JD4" s="32"/>
+      <c r="JE4" s="32"/>
+      <c r="JF4" s="32"/>
+      <c r="JG4" s="32"/>
+      <c r="JH4" s="32"/>
+      <c r="JI4" s="32"/>
+      <c r="JJ4" s="32"/>
+      <c r="JK4" s="32"/>
+      <c r="JL4" s="32"/>
+      <c r="JM4" s="32"/>
+      <c r="JN4" s="32"/>
+      <c r="JO4" s="32"/>
+      <c r="JP4" s="32"/>
+      <c r="JQ4" s="32"/>
+      <c r="JR4" s="32"/>
+      <c r="JS4" s="32"/>
+      <c r="JT4" s="32"/>
+      <c r="JU4" s="32"/>
+      <c r="JV4" s="32"/>
+      <c r="JW4" s="32"/>
+      <c r="JX4" s="32"/>
+      <c r="JY4" s="32"/>
+      <c r="JZ4" s="32"/>
+      <c r="KA4" s="32"/>
+      <c r="KB4" s="32"/>
+      <c r="KC4" s="32"/>
+      <c r="KD4" s="32"/>
+      <c r="KE4" s="32"/>
+      <c r="KF4" s="32"/>
+      <c r="KG4" s="32"/>
+      <c r="KH4" s="32"/>
+      <c r="KI4" s="32"/>
+      <c r="KJ4" s="32"/>
+      <c r="KK4" s="32"/>
+      <c r="KL4" s="32"/>
+      <c r="KM4" s="32"/>
+      <c r="KN4" s="32"/>
+      <c r="KO4" s="32"/>
+      <c r="KP4" s="32"/>
+      <c r="KQ4" s="32"/>
+      <c r="KR4" s="32"/>
+      <c r="KS4" s="32"/>
+      <c r="KT4" s="32"/>
+      <c r="KU4" s="32"/>
+      <c r="KV4" s="32"/>
+      <c r="KW4" s="32"/>
+      <c r="KX4" s="32"/>
+      <c r="KY4" s="32"/>
+      <c r="KZ4" s="32"/>
+      <c r="LA4" s="32"/>
+      <c r="LB4" s="32"/>
+      <c r="LC4" s="32"/>
+      <c r="LD4" s="32"/>
+      <c r="LE4" s="32"/>
+      <c r="LF4" s="32"/>
+      <c r="LG4" s="32"/>
+      <c r="LH4" s="32"/>
+      <c r="LI4" s="32"/>
+      <c r="LJ4" s="32"/>
+      <c r="LK4" s="32"/>
+      <c r="LL4" s="32"/>
+      <c r="LM4" s="32"/>
+      <c r="LN4" s="32"/>
+      <c r="LO4" s="32"/>
+      <c r="LP4" s="32"/>
+      <c r="LQ4" s="32"/>
+      <c r="LR4" s="32"/>
+      <c r="LS4" s="32"/>
+      <c r="LT4" s="32"/>
+      <c r="LU4" s="32"/>
+      <c r="LV4" s="32"/>
+      <c r="LW4" s="32"/>
+      <c r="LX4" s="32"/>
+      <c r="LY4" s="32"/>
+      <c r="LZ4" s="32"/>
+      <c r="MA4" s="32"/>
+      <c r="MB4" s="32"/>
+      <c r="MC4" s="32"/>
+      <c r="MD4" s="32"/>
+      <c r="ME4" s="32"/>
+      <c r="MF4" s="32"/>
+      <c r="MG4" s="32"/>
+      <c r="MH4" s="32"/>
+      <c r="MI4" s="32"/>
+      <c r="MJ4" s="32"/>
+      <c r="MK4" s="32"/>
+      <c r="ML4" s="32"/>
+      <c r="MM4" s="32"/>
+      <c r="MN4" s="32"/>
+      <c r="MO4" s="32"/>
+      <c r="MP4" s="32"/>
+      <c r="MQ4" s="32"/>
+      <c r="MR4" s="32"/>
+      <c r="MS4" s="32"/>
+      <c r="MT4" s="32"/>
+      <c r="MU4" s="32"/>
+      <c r="MV4" s="32"/>
+      <c r="MW4" s="32"/>
+      <c r="MX4" s="32"/>
+      <c r="MY4" s="32"/>
+      <c r="MZ4" s="32"/>
+      <c r="NA4" s="32"/>
+      <c r="NB4" s="32"/>
+      <c r="NC4" s="32"/>
+      <c r="ND4" s="32"/>
+      <c r="NE4" s="32"/>
+      <c r="NF4" s="32"/>
+      <c r="NG4" s="32"/>
+      <c r="NH4" s="32"/>
+      <c r="NI4" s="32"/>
+      <c r="NJ4" s="32"/>
+      <c r="NK4" s="32"/>
+      <c r="NL4" s="32"/>
+      <c r="NM4" s="32"/>
+      <c r="NN4" s="32"/>
+      <c r="NO4" s="32"/>
+      <c r="NP4" s="32"/>
+      <c r="NQ4" s="32"/>
+      <c r="NR4" s="32"/>
+      <c r="NS4" s="32"/>
+      <c r="NT4" s="32"/>
+      <c r="NU4" s="32"/>
+      <c r="NV4" s="32"/>
+      <c r="NW4" s="32"/>
+      <c r="NX4" s="32"/>
+      <c r="NY4" s="32"/>
+      <c r="NZ4" s="32"/>
+      <c r="OA4" s="32"/>
+      <c r="OB4" s="32"/>
+      <c r="OC4" s="32"/>
+      <c r="OD4" s="32"/>
+      <c r="OE4" s="32"/>
+      <c r="OF4" s="32"/>
+      <c r="OG4" s="32"/>
+      <c r="OH4" s="32"/>
+      <c r="OI4" s="32"/>
+      <c r="OJ4" s="32"/>
+      <c r="OK4" s="32"/>
+      <c r="OL4" s="32"/>
+      <c r="OM4" s="32"/>
+      <c r="ON4" s="32"/>
+      <c r="OO4" s="32"/>
+      <c r="OP4" s="32"/>
+      <c r="OQ4" s="32"/>
+      <c r="OR4" s="32"/>
+      <c r="OS4" s="32"/>
+      <c r="OT4" s="32"/>
+      <c r="OU4" s="32"/>
+      <c r="OV4" s="32"/>
+      <c r="OW4" s="32"/>
+      <c r="OX4" s="32"/>
+      <c r="OY4" s="32"/>
+      <c r="OZ4" s="32"/>
+      <c r="PA4" s="32"/>
+      <c r="PB4" s="32"/>
+      <c r="PC4" s="32"/>
+      <c r="PD4" s="32"/>
     </row>
-    <row r="5" spans="1:62" ht="15.75">
+    <row r="5" spans="1:420" ht="15.75">
       <c r="BB5" s="4"/>
     </row>
-    <row r="10" spans="1:62" ht="15.75">
-      <c r="F10" s="29"/>
+    <row r="10" spans="1:420" ht="15.75">
+      <c r="F10" s="26"/>
     </row>
-    <row r="11" spans="1:62" ht="15.75">
-      <c r="H11" s="29"/>
+    <row r="11" spans="1:420" ht="15.75">
+      <c r="H11" s="26"/>
     </row>
-    <row r="12" spans="1:62" ht="15.75">
-      <c r="D12" s="29"/>
+    <row r="12" spans="1:420" ht="15.75">
+      <c r="D12" s="26"/>
     </row>
     <row r="17" spans="6:6" ht="15.75">
-      <c r="F17" s="29"/>
+      <c r="F17" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1836,7 +2944,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1851,36 +2959,36 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>2</v>
@@ -1889,13 +2997,13 @@
         <v>18</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1912,7 +3020,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1936,7 +3044,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1946,21 +3054,21 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/ep/test/data/TestData.xlsx
+++ b/src/main/java/com/ep/test/data/TestData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BE14793A-F5C9-42DC-8630-7D3F1F278D0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15420" windowHeight="2280" tabRatio="377" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="2880" tabRatio="377" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Signup" sheetId="3" r:id="rId1"/>
@@ -13,7 +14,8 @@
     <sheet name="Contactus" sheetId="4" r:id="rId4"/>
     <sheet name="ChangePassword" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M7"/>
 </workbook>
 </file>
 
@@ -488,12 +490,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,6 +671,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -715,7 +725,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -747,9 +757,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -781,6 +809,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -956,14 +1002,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -977,7 +1023,7 @@
     <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="21">
         <v>0</v>
       </c>
@@ -1006,7 +1052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -1019,7 +1065,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1048,7 +1094,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1084,21 +1130,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1109,14 +1155,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -1127,7 +1173,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1138,12 +1184,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1151,14 +1197,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:PD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+    <sheetView topLeftCell="BC1" workbookViewId="0">
       <selection activeCell="BK11" sqref="BK11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1219,7 +1265,7 @@
     <col min="64" max="420" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:420">
+    <row r="1" spans="1:420" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1410,7 +1456,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:420" s="11" customFormat="1">
+    <row r="2" spans="1:420" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -1775,7 +1821,7 @@
       <c r="PC2" s="32"/>
       <c r="PD2" s="32"/>
     </row>
-    <row r="3" spans="1:420" s="11" customFormat="1">
+    <row r="3" spans="1:420" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -2323,7 +2369,7 @@
       <c r="PC3" s="32"/>
       <c r="PD3" s="32"/>
     </row>
-    <row r="4" spans="1:420" s="11" customFormat="1" ht="15.75">
+    <row r="4" spans="1:420" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>23</v>
       </c>
@@ -2871,26 +2917,26 @@
       <c r="PC4" s="32"/>
       <c r="PD4" s="32"/>
     </row>
-    <row r="5" spans="1:420" ht="15.75">
+    <row r="5" spans="1:420" ht="15.75" x14ac:dyDescent="0.25">
       <c r="BB5" s="4"/>
     </row>
-    <row r="10" spans="1:420" ht="15.75">
+    <row r="10" spans="1:420" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F10" s="26"/>
     </row>
-    <row r="11" spans="1:420" ht="15.75">
+    <row r="11" spans="1:420" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H11" s="26"/>
     </row>
-    <row r="12" spans="1:420" ht="15.75">
+    <row r="12" spans="1:420" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D12" s="26"/>
     </row>
-    <row r="17" spans="6:6" ht="15.75">
+    <row r="17" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F17" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N4" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2" display="http://nameberry.com/babyname/William"/>
-    <hyperlink ref="U4" r:id="rId3"/>
+    <hyperlink ref="N4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://nameberry.com/babyname/William" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="U4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2898,14 +2944,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -2916,7 +2962,7 @@
     <col min="8" max="8" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -2942,7 +2988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -2954,7 +3000,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -2980,7 +3026,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
@@ -3008,7 +3054,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3016,14 +3062,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -3031,7 +3077,7 @@
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -3042,14 +3088,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -3060,7 +3106,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>39</v>
       </c>
